--- a/Gangbuk_edit3/Gangbukgu_edit3.xlsx
+++ b/Gangbuk_edit3/Gangbukgu_edit3.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangbuk_edit3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataAnalysis\Paper_pycharm\Gangbuk_edit3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_E88A745FD16010C930170B40335DD723502D9ECF" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C07E97C0-393F-4E60-B6DF-264BFD578D99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C43DE1-0393-4730-A823-EE37EFBD78DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24825" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit3" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edit3!$A$1:$DN$47</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -3217,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3588,55 +3591,55 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C2">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>2010.05</v>
+        <v>2001.11</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M2" t="s">
         <v>456</v>
       </c>
-      <c r="N2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O2" t="s">
-        <v>464</v>
-      </c>
-      <c r="P2" t="s">
-        <v>470</v>
+      <c r="N2">
+        <v>3098</v>
+      </c>
+      <c r="O2">
+        <v>37.618310999999999</v>
+      </c>
+      <c r="P2">
+        <v>127.012946</v>
       </c>
       <c r="Q2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="R2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="S2" t="s">
         <v>553</v>
@@ -3648,13 +3651,13 @@
         <v>556</v>
       </c>
       <c r="V2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="W2" t="s">
-        <v>599</v>
+        <v>502</v>
       </c>
       <c r="X2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="Y2" t="s">
         <v>553</v>
@@ -3666,13 +3669,13 @@
         <v>556</v>
       </c>
       <c r="AB2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AC2" t="s">
-        <v>613</v>
+        <v>702</v>
       </c>
       <c r="AD2" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="AE2" t="s">
         <v>553</v>
@@ -3684,13 +3687,13 @@
         <v>556</v>
       </c>
       <c r="AH2" t="s">
-        <v>688</v>
+        <v>757</v>
       </c>
       <c r="AI2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="AJ2" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="AK2" t="s">
         <v>553</v>
@@ -3702,13 +3705,13 @@
         <v>556</v>
       </c>
       <c r="AN2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AO2" t="s">
-        <v>774</v>
+        <v>833</v>
       </c>
       <c r="AP2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="AQ2" t="s">
         <v>553</v>
@@ -3720,16 +3723,16 @@
         <v>556</v>
       </c>
       <c r="AT2" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="AU2" t="s">
-        <v>858</v>
+        <v>703</v>
       </c>
       <c r="AV2" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="AW2" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="AX2" t="s">
         <v>554</v>
@@ -3738,43 +3741,7 @@
         <v>556</v>
       </c>
       <c r="AZ2" t="s">
-        <v>876</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>859</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>864</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>554</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>556</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>682</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>788</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>898</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>669</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>554</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>556</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>568</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.3">
@@ -3782,73 +3749,73 @@
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>459</v>
       </c>
       <c r="D3">
-        <v>2017.02</v>
+        <v>2003.05</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M3" t="s">
         <v>456</v>
       </c>
-      <c r="N3" t="s">
-        <v>459</v>
-      </c>
-      <c r="O3" t="s">
-        <v>465</v>
-      </c>
-      <c r="P3" t="s">
-        <v>471</v>
+      <c r="N3">
+        <v>8786</v>
+      </c>
+      <c r="O3">
+        <v>37.615949000000001</v>
+      </c>
+      <c r="P3">
+        <v>127.036222</v>
       </c>
       <c r="Q3" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="R3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="S3" t="s">
         <v>553</v>
       </c>
       <c r="T3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="W3" t="s">
-        <v>600</v>
+        <v>502</v>
       </c>
       <c r="X3" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="Y3" t="s">
         <v>553</v>
@@ -3860,16 +3827,16 @@
         <v>556</v>
       </c>
       <c r="AB3" t="s">
-        <v>561</v>
+        <v>674</v>
       </c>
       <c r="AC3" t="s">
-        <v>603</v>
+        <v>703</v>
       </c>
       <c r="AD3" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="AE3" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="AF3" t="s">
         <v>554</v>
@@ -3878,97 +3845,7 @@
         <v>556</v>
       </c>
       <c r="AH3" t="s">
-        <v>680</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>773</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>790</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>816</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>699</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>840</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>855</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>772</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>865</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>817</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>882</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>885</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>556</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>564</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>894</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>899</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>669</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>556</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>817</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.3">
@@ -3976,91 +3853,91 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D4">
-        <v>2000.1</v>
+        <v>2007.09</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="J4" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="L4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M4" t="s">
         <v>456</v>
       </c>
-      <c r="N4" t="s">
-        <v>460</v>
-      </c>
-      <c r="O4" t="s">
-        <v>466</v>
-      </c>
-      <c r="P4" t="s">
-        <v>472</v>
+      <c r="N4">
+        <v>23821</v>
+      </c>
+      <c r="O4">
+        <v>37.629041999999998</v>
+      </c>
+      <c r="P4">
+        <v>127.018889</v>
       </c>
       <c r="Q4" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="R4" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="S4" t="s">
         <v>553</v>
       </c>
       <c r="T4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U4" t="s">
         <v>556</v>
       </c>
       <c r="V4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="W4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="X4" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="Y4" t="s">
         <v>553</v>
       </c>
       <c r="Z4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA4" t="s">
         <v>556</v>
       </c>
       <c r="AB4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="AC4" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AD4" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="AE4" t="s">
         <v>553</v>
@@ -4072,13 +3949,13 @@
         <v>556</v>
       </c>
       <c r="AH4" t="s">
-        <v>579</v>
+        <v>759</v>
       </c>
       <c r="AI4" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="AJ4" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="AK4" t="s">
         <v>553</v>
@@ -4090,66 +3967,102 @@
         <v>556</v>
       </c>
       <c r="AN4" t="s">
-        <v>583</v>
+        <v>694</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>834</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>845</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>502</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>870</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C5">
-        <v>226</v>
+        <v>427</v>
       </c>
       <c r="D5">
-        <v>2019.1</v>
+        <v>1990.1</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="J5" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="K5" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="L5" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M5" t="s">
         <v>456</v>
       </c>
-      <c r="N5" t="s">
-        <v>461</v>
-      </c>
-      <c r="O5" t="s">
-        <v>467</v>
-      </c>
-      <c r="P5" t="s">
-        <v>473</v>
+      <c r="N5">
+        <v>1343</v>
+      </c>
+      <c r="O5">
+        <v>37.641959</v>
+      </c>
+      <c r="P5">
+        <v>127.011955</v>
       </c>
       <c r="Q5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="R5" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="S5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T5" t="s">
         <v>555</v>
@@ -4158,34 +4071,34 @@
         <v>556</v>
       </c>
       <c r="V5" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="W5" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="X5" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="Y5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA5" t="s">
         <v>556</v>
       </c>
       <c r="AB5" t="s">
-        <v>562</v>
+        <v>692</v>
       </c>
       <c r="AC5" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="AD5" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="AE5" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="AF5" t="s">
         <v>554</v>
@@ -4194,16 +4107,16 @@
         <v>556</v>
       </c>
       <c r="AH5" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="AI5" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="AJ5" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="AK5" t="s">
-        <v>553</v>
+        <v>814</v>
       </c>
       <c r="AL5" t="s">
         <v>554</v>
@@ -4212,225 +4125,99 @@
         <v>556</v>
       </c>
       <c r="AN5" t="s">
-        <v>817</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>830</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>841</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>687</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>709</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>866</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>877</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>883</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>886</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>554</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>556</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>891</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>895</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>900</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>553</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>554</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>556</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>685</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>831</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>904</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>553</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>554</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>556</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>597</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>894</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>909</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>553</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>554</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>556</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>763</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>912</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>914</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>669</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>554</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>556</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>824</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>2011.11</v>
+        <v>1998.07</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J6" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="K6" t="s">
         <v>397</v>
       </c>
       <c r="L6" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="M6" t="s">
         <v>456</v>
       </c>
-      <c r="N6" t="s">
-        <v>462</v>
-      </c>
-      <c r="O6" t="s">
-        <v>468</v>
-      </c>
-      <c r="P6" t="s">
-        <v>474</v>
+      <c r="N6">
+        <v>1336</v>
+      </c>
+      <c r="O6">
+        <v>37.631157999999999</v>
+      </c>
+      <c r="P6">
+        <v>127.03610500000001</v>
       </c>
       <c r="Q6" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="R6" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="S6" t="s">
         <v>553</v>
       </c>
       <c r="T6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U6" t="s">
         <v>556</v>
       </c>
       <c r="V6" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="W6" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="X6" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="Y6" t="s">
         <v>553</v>
       </c>
       <c r="Z6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA6" t="s">
         <v>556</v>
       </c>
       <c r="AB6" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="AC6" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="AD6" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="AE6" t="s">
         <v>553</v>
@@ -4442,13 +4229,13 @@
         <v>556</v>
       </c>
       <c r="AH6" t="s">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="AI6" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="AJ6" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="AK6" t="s">
         <v>553</v>
@@ -4460,225 +4247,99 @@
         <v>556</v>
       </c>
       <c r="AN6" t="s">
-        <v>691</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>831</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>842</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>856</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>859</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>867</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>590</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>778</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>887</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>554</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>556</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>892</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>896</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>901</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>554</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>556</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>769</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>702</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>905</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>554</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>556</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>697</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>907</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>910</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>554</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>556</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>595</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>719</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>915</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>669</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>554</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>556</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>917</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="D7">
-        <v>2013.09</v>
+        <v>1998.06</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="L7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="M7" t="s">
         <v>456</v>
       </c>
-      <c r="N7" t="s">
-        <v>463</v>
-      </c>
-      <c r="O7" t="s">
-        <v>469</v>
-      </c>
-      <c r="P7" t="s">
-        <v>475</v>
+      <c r="N7">
+        <v>3126</v>
+      </c>
+      <c r="O7">
+        <v>37.627388000000003</v>
+      </c>
+      <c r="P7">
+        <v>127.04343799999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="R7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="S7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="T7" t="s">
         <v>555</v>
       </c>
       <c r="U7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="W7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="X7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="Y7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA7" t="s">
         <v>556</v>
       </c>
       <c r="AB7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="AC7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="AD7" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="AE7" t="s">
         <v>553</v>
@@ -4690,259 +4351,25 @@
         <v>556</v>
       </c>
       <c r="AH7" t="s">
+        <v>765</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>612</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>805</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN7" t="s">
         <v>756</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>777</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>794</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>562</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>832</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>843</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>554</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>756</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>860</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>868</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>554</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>756</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>884</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>888</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>554</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>554</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>556</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>562</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>897</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>902</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>554</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>554</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>556</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>756</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>903</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>906</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>553</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>554</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>556</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>756</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>908</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>911</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>553</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>554</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>556</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>756</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>913</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>916</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>553</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>554</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>556</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>756</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>605</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>918</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>553</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>554</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>556</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>756</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>609</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>919</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>553</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>554</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>556</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>756</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>920</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>921</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>553</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>554</v>
-      </c>
-      <c r="CU7" t="s">
-        <v>556</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>922</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>923</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>924</v>
-      </c>
-      <c r="CY7" t="s">
-        <v>553</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>554</v>
-      </c>
-      <c r="DA7" t="s">
-        <v>556</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>564</v>
-      </c>
-      <c r="DC7" t="s">
-        <v>925</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>926</v>
-      </c>
-      <c r="DE7" t="s">
-        <v>553</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>554</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>556</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>672</v>
-      </c>
-      <c r="DI7" t="s">
-        <v>927</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>928</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>553</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>554</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>556</v>
-      </c>
-      <c r="DN7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.3">
@@ -4950,55 +4377,55 @@
         <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="D8">
-        <v>2001.11</v>
+        <v>2017.02</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M8" t="s">
         <v>456</v>
       </c>
-      <c r="N8">
-        <v>3098</v>
-      </c>
-      <c r="O8">
-        <v>37.618310999999999</v>
-      </c>
-      <c r="P8">
-        <v>127.012946</v>
+      <c r="N8" t="s">
+        <v>459</v>
+      </c>
+      <c r="O8" t="s">
+        <v>465</v>
+      </c>
+      <c r="P8" t="s">
+        <v>471</v>
       </c>
       <c r="Q8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="R8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="S8" t="s">
         <v>553</v>
@@ -5010,13 +4437,13 @@
         <v>556</v>
       </c>
       <c r="V8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="W8" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="X8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="Y8" t="s">
         <v>553</v>
@@ -5028,13 +4455,13 @@
         <v>556</v>
       </c>
       <c r="AB8" t="s">
-        <v>673</v>
+        <v>561</v>
       </c>
       <c r="AC8" t="s">
-        <v>702</v>
+        <v>603</v>
       </c>
       <c r="AD8" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AE8" t="s">
         <v>553</v>
@@ -5046,13 +4473,13 @@
         <v>556</v>
       </c>
       <c r="AH8" t="s">
-        <v>757</v>
+        <v>680</v>
       </c>
       <c r="AI8" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="AJ8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="AK8" t="s">
         <v>553</v>
@@ -5064,13 +4491,13 @@
         <v>556</v>
       </c>
       <c r="AN8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AO8" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="AP8" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="AQ8" t="s">
         <v>553</v>
@@ -5082,25 +4509,61 @@
         <v>556</v>
       </c>
       <c r="AT8" t="s">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="AU8" t="s">
-        <v>703</v>
+        <v>772</v>
       </c>
       <c r="AV8" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="AW8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>817</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>882</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>885</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>553</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>554</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>564</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>894</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>899</v>
+      </c>
+      <c r="BI8" t="s">
         <v>669</v>
       </c>
-      <c r="AX8" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>878</v>
+      <c r="BJ8" t="s">
+        <v>554</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>556</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.3">
@@ -5108,177 +4571,321 @@
         <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9">
-        <v>459</v>
+        <v>226</v>
       </c>
       <c r="D9">
-        <v>2003.05</v>
+        <v>2019.1</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M9" t="s">
         <v>456</v>
       </c>
-      <c r="N9">
-        <v>8786</v>
-      </c>
-      <c r="O9">
-        <v>37.615949000000001</v>
-      </c>
-      <c r="P9">
-        <v>127.036222</v>
+      <c r="N9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O9" t="s">
+        <v>467</v>
+      </c>
+      <c r="P9" t="s">
+        <v>473</v>
       </c>
       <c r="Q9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="S9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T9" t="s">
         <v>555</v>
       </c>
       <c r="U9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="W9" t="s">
-        <v>502</v>
+        <v>602</v>
       </c>
       <c r="X9" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Y9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA9" t="s">
         <v>556</v>
       </c>
       <c r="AB9" t="s">
-        <v>674</v>
+        <v>562</v>
       </c>
       <c r="AC9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AD9" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="AE9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>754</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>792</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>817</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>830</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>841</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>687</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>709</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>866</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>883</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>886</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>553</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>554</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>891</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>895</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>900</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>553</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>554</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>556</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>685</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>831</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>904</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>553</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>554</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>556</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>597</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>894</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>909</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>553</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>554</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>556</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>763</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>912</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>914</v>
+      </c>
+      <c r="CA9" t="s">
         <v>669</v>
       </c>
-      <c r="AF9" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>758</v>
+      <c r="CB9" t="s">
+        <v>554</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>556</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="D10">
-        <v>2007.09</v>
+        <v>2000.09</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="J10" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="K10" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="L10" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="M10" t="s">
         <v>456</v>
       </c>
       <c r="N10">
-        <v>23821</v>
+        <v>3134</v>
       </c>
       <c r="O10">
-        <v>37.629041999999998</v>
+        <v>37.655611</v>
       </c>
       <c r="P10">
-        <v>127.018889</v>
+        <v>127.011026</v>
       </c>
       <c r="Q10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R10" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="S10" t="s">
         <v>553</v>
       </c>
       <c r="T10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U10" t="s">
         <v>556</v>
       </c>
       <c r="V10" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="W10" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="X10" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="Y10" t="s">
         <v>553</v>
@@ -5290,13 +4897,13 @@
         <v>556</v>
       </c>
       <c r="AB10" t="s">
-        <v>598</v>
+        <v>696</v>
       </c>
       <c r="AC10" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="AD10" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="AE10" t="s">
         <v>553</v>
@@ -5308,61 +4915,7 @@
         <v>556</v>
       </c>
       <c r="AH10" t="s">
-        <v>759</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>779</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>796</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>694</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>834</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>845</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>694</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>870</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>879</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.3">
@@ -5370,55 +4923,55 @@
         <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C11">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>2006.04</v>
+        <v>2011.11</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M11" t="s">
         <v>456</v>
       </c>
-      <c r="N11">
-        <v>17516</v>
-      </c>
-      <c r="O11">
-        <v>37.613855000000001</v>
-      </c>
-      <c r="P11">
-        <v>127.025828</v>
+      <c r="N11" t="s">
+        <v>462</v>
+      </c>
+      <c r="O11" t="s">
+        <v>468</v>
+      </c>
+      <c r="P11" t="s">
+        <v>474</v>
       </c>
       <c r="Q11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="R11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="S11" t="s">
         <v>553</v>
@@ -5430,13 +4983,13 @@
         <v>556</v>
       </c>
       <c r="V11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="W11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="X11" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Y11" t="s">
         <v>553</v>
@@ -5448,13 +5001,13 @@
         <v>556</v>
       </c>
       <c r="AB11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AC11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AD11" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="AE11" t="s">
         <v>553</v>
@@ -5466,13 +5019,13 @@
         <v>556</v>
       </c>
       <c r="AH11" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="AI11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AJ11" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="AK11" t="s">
         <v>553</v>
@@ -5484,13 +5037,13 @@
         <v>556</v>
       </c>
       <c r="AN11" t="s">
-        <v>819</v>
+        <v>691</v>
       </c>
       <c r="AO11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="AP11" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="AQ11" t="s">
         <v>553</v>
@@ -5502,25 +5055,115 @@
         <v>556</v>
       </c>
       <c r="AT11" t="s">
-        <v>582</v>
+        <v>856</v>
       </c>
       <c r="AU11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AV11" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="AW11" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>590</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>778</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>887</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>553</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>554</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>892</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>896</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>901</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>553</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>554</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>556</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>769</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>702</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>905</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>553</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>554</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>556</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>697</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>907</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>910</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>553</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>554</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>556</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>595</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>719</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>915</v>
+      </c>
+      <c r="CA11" t="s">
         <v>669</v>
       </c>
-      <c r="AX11" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>880</v>
+      <c r="CB11" t="s">
+        <v>554</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>556</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.3">
@@ -5650,34 +5293,34 @@
         <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="D13">
-        <v>2010.09</v>
+        <v>2006.04</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" t="s">
         <v>242</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K13" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L13" t="s">
         <v>425</v>
@@ -5686,19 +5329,19 @@
         <v>456</v>
       </c>
       <c r="N13">
-        <v>26885</v>
+        <v>17516</v>
       </c>
       <c r="O13">
-        <v>37.612743999999999</v>
+        <v>37.613855000000001</v>
       </c>
       <c r="P13">
-        <v>127.025526</v>
+        <v>127.025828</v>
       </c>
       <c r="Q13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="R13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S13" t="s">
         <v>553</v>
@@ -5710,13 +5353,13 @@
         <v>556</v>
       </c>
       <c r="V13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W13" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="X13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Y13" t="s">
         <v>553</v>
@@ -5728,13 +5371,13 @@
         <v>556</v>
       </c>
       <c r="AB13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AD13" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AE13" t="s">
         <v>553</v>
@@ -5746,13 +5389,13 @@
         <v>556</v>
       </c>
       <c r="AH13" t="s">
-        <v>598</v>
+        <v>760</v>
       </c>
       <c r="AI13" t="s">
-        <v>617</v>
+        <v>780</v>
       </c>
       <c r="AJ13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AK13" t="s">
         <v>553</v>
@@ -5764,13 +5407,13 @@
         <v>556</v>
       </c>
       <c r="AN13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AO13" t="s">
-        <v>502</v>
+        <v>835</v>
       </c>
       <c r="AP13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AQ13" t="s">
         <v>553</v>
@@ -5782,13 +5425,13 @@
         <v>556</v>
       </c>
       <c r="AT13" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="AU13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AV13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AW13" t="s">
         <v>669</v>
@@ -5800,7 +5443,7 @@
         <v>556</v>
       </c>
       <c r="AZ13" t="s">
-        <v>575</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.3">
@@ -5808,91 +5451,91 @@
         <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>648</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>2002.08</v>
+        <v>2000.1</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J14" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="K14" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="L14" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M14" t="s">
         <v>456</v>
       </c>
-      <c r="N14">
-        <v>3099</v>
-      </c>
-      <c r="O14">
-        <v>37.621561</v>
-      </c>
-      <c r="P14">
-        <v>127.010971</v>
+      <c r="N14" t="s">
+        <v>460</v>
+      </c>
+      <c r="O14" t="s">
+        <v>466</v>
+      </c>
+      <c r="P14" t="s">
+        <v>472</v>
       </c>
       <c r="Q14" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="R14" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="S14" t="s">
         <v>553</v>
       </c>
       <c r="T14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V14" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="W14" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="X14" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="Y14" t="s">
         <v>553</v>
       </c>
       <c r="Z14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA14" t="s">
         <v>556</v>
       </c>
       <c r="AB14" t="s">
-        <v>677</v>
+        <v>564</v>
       </c>
       <c r="AC14" t="s">
-        <v>605</v>
+        <v>699</v>
       </c>
       <c r="AD14" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="AE14" t="s">
         <v>553</v>
@@ -5904,16 +5547,16 @@
         <v>556</v>
       </c>
       <c r="AH14" t="s">
-        <v>761</v>
+        <v>579</v>
       </c>
       <c r="AI14" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="AJ14" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="AK14" t="s">
-        <v>669</v>
+        <v>553</v>
       </c>
       <c r="AL14" t="s">
         <v>554</v>
@@ -5922,7 +5565,7 @@
         <v>556</v>
       </c>
       <c r="AN14" t="s">
-        <v>821</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.3">
@@ -5930,55 +5573,55 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C15">
-        <v>805</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>2003.12</v>
+        <v>1996.11</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K15" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="L15" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M15" t="s">
         <v>456</v>
       </c>
       <c r="N15">
-        <v>8206</v>
+        <v>3888</v>
       </c>
       <c r="O15">
-        <v>37.615672000000004</v>
+        <v>37.633380000000002</v>
       </c>
       <c r="P15">
-        <v>127.017853</v>
+        <v>127.02691</v>
       </c>
       <c r="Q15" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="R15" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="S15" t="s">
         <v>553</v>
@@ -5990,34 +5633,34 @@
         <v>556</v>
       </c>
       <c r="V15" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="W15" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="X15" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="Y15" t="s">
         <v>553</v>
       </c>
       <c r="Z15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA15" t="s">
         <v>556</v>
       </c>
       <c r="AB15" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="AC15" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AD15" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AE15" t="s">
-        <v>669</v>
+        <v>553</v>
       </c>
       <c r="AF15" t="s">
         <v>554</v>
@@ -6026,7 +5669,43 @@
         <v>556</v>
       </c>
       <c r="AH15" t="s">
-        <v>762</v>
+        <v>676</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>779</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>802</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>687</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>834</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>848</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.3">
@@ -6034,123 +5713,195 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C16">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="D16">
-        <v>2003.1</v>
+        <v>2002.11</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I16" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="J16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K16" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L16" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M16" t="s">
         <v>456</v>
       </c>
       <c r="N16">
-        <v>26447</v>
+        <v>8787</v>
       </c>
       <c r="O16">
-        <v>37.621600000000001</v>
+        <v>37.614521000000003</v>
       </c>
       <c r="P16">
-        <v>127.026543</v>
+        <v>127.036807</v>
       </c>
       <c r="Q16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="R16" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="S16" t="s">
         <v>553</v>
       </c>
       <c r="T16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V16" t="s">
-        <v>573</v>
+        <v>577</v>
+      </c>
+      <c r="W16" t="s">
+        <v>612</v>
+      </c>
+      <c r="X16" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>669</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>764</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>784</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>803</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>669</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>823</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>837</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>849</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>669</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>579</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C17">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D17">
-        <v>1998.1</v>
+        <v>1998.08</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I17" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="J17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L17" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M17" t="s">
         <v>456</v>
       </c>
       <c r="N17">
-        <v>1007</v>
+        <v>900</v>
       </c>
       <c r="O17">
-        <v>37.617320999999997</v>
+        <v>37.624274</v>
       </c>
       <c r="P17">
-        <v>127.022272</v>
+        <v>127.038346</v>
       </c>
       <c r="Q17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="R17" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="S17" t="s">
         <v>553</v>
@@ -6159,37 +5910,37 @@
         <v>555</v>
       </c>
       <c r="U17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="V17" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="W17" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="X17" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="Y17" t="s">
         <v>553</v>
       </c>
       <c r="Z17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA17" t="s">
         <v>556</v>
       </c>
       <c r="AB17" t="s">
-        <v>583</v>
+        <v>682</v>
       </c>
       <c r="AC17" t="s">
-        <v>496</v>
+        <v>711</v>
       </c>
       <c r="AD17" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="AE17" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="AF17" t="s">
         <v>554</v>
@@ -6198,99 +5949,81 @@
         <v>556</v>
       </c>
       <c r="AH17" t="s">
-        <v>763</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>616</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>801</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="D18">
-        <v>2006.03</v>
+        <v>1998.1</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H18" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="J18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K18" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L18" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M18" t="s">
         <v>456</v>
       </c>
       <c r="N18">
-        <v>24036</v>
+        <v>3128</v>
       </c>
       <c r="O18">
-        <v>37.625860000000003</v>
+        <v>37.626356999999999</v>
       </c>
       <c r="P18">
-        <v>127.03119</v>
+        <v>127.03962199999999</v>
       </c>
       <c r="Q18" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="R18" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="S18" t="s">
         <v>553</v>
       </c>
       <c r="T18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V18" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="W18" t="s">
-        <v>507</v>
+        <v>617</v>
       </c>
       <c r="X18" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="Y18" t="s">
         <v>553</v>
@@ -6302,519 +6035,483 @@
         <v>556</v>
       </c>
       <c r="AB18" t="s">
-        <v>672</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>709</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>736</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>591</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>783</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>736</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>822</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>836</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>736</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="D19">
-        <v>1996.11</v>
+        <v>1991.05</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
         <v>249</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="J19" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K19" t="s">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="L19" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M19" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N19">
-        <v>3888</v>
+        <v>1337</v>
       </c>
       <c r="O19">
-        <v>37.633380000000002</v>
+        <v>37.624749999999999</v>
       </c>
       <c r="P19">
-        <v>127.02691</v>
+        <v>127.04728</v>
       </c>
       <c r="Q19" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="R19" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="S19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T19" t="s">
         <v>555</v>
       </c>
       <c r="U19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V19" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="W19" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="X19" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="Y19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z19" t="s">
         <v>555</v>
       </c>
       <c r="AA19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AB19" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="AC19" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="AD19" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="AE19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AH19" t="s">
-        <v>676</v>
+        <v>767</v>
       </c>
       <c r="AI19" t="s">
-        <v>779</v>
+        <v>626</v>
       </c>
       <c r="AJ19" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="AK19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AL19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM19" t="s">
         <v>556</v>
       </c>
       <c r="AN19" t="s">
-        <v>687</v>
+        <v>825</v>
       </c>
       <c r="AO19" t="s">
-        <v>834</v>
+        <v>491</v>
       </c>
       <c r="AP19" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="AQ19" t="s">
         <v>553</v>
       </c>
       <c r="AR19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AS19" t="s">
         <v>556</v>
       </c>
       <c r="AT19" t="s">
-        <v>694</v>
+        <v>857</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>503</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>874</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>881</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>609</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>889</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>553</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>555</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>557</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>893</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C20">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>2002.11</v>
+        <v>1991.04</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H20" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="J20" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K20" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L20" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M20" t="s">
         <v>456</v>
       </c>
       <c r="N20">
-        <v>8787</v>
+        <v>1302</v>
       </c>
       <c r="O20">
-        <v>37.614521000000003</v>
+        <v>37.631064000000002</v>
       </c>
       <c r="P20">
-        <v>127.036807</v>
+        <v>127.039018</v>
       </c>
       <c r="Q20" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="R20" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="S20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T20" t="s">
         <v>555</v>
       </c>
       <c r="U20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V20" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="W20" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="X20" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="Y20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AB20" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="AC20" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="AD20" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="AE20" t="s">
-        <v>669</v>
+        <v>554</v>
       </c>
       <c r="AF20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG20" t="s">
         <v>556</v>
       </c>
       <c r="AH20" t="s">
-        <v>764</v>
+        <v>688</v>
       </c>
       <c r="AI20" t="s">
-        <v>784</v>
+        <v>713</v>
       </c>
       <c r="AJ20" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="AK20" t="s">
-        <v>669</v>
+        <v>554</v>
       </c>
       <c r="AL20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM20" t="s">
         <v>556</v>
       </c>
       <c r="AN20" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AO20" t="s">
-        <v>837</v>
+        <v>486</v>
       </c>
       <c r="AP20" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="AQ20" t="s">
-        <v>669</v>
+        <v>553</v>
       </c>
       <c r="AR20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AS20" t="s">
         <v>556</v>
       </c>
       <c r="AT20" t="s">
-        <v>579</v>
+        <v>688</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>875</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>555</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>826</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>624</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>890</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>553</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>554</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>826</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C21">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D21">
-        <v>1992.12</v>
+        <v>1991.03</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H21" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="I21" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J21" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="K21" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L21" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="M21" t="s">
         <v>456</v>
       </c>
       <c r="N21">
-        <v>1007</v>
+        <v>1342</v>
       </c>
       <c r="O21">
-        <v>37.617320999999997</v>
+        <v>37.626987</v>
       </c>
       <c r="P21">
-        <v>127.022272</v>
+        <v>127.040701</v>
       </c>
       <c r="Q21" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="R21" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="S21" t="s">
         <v>553</v>
       </c>
       <c r="T21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="V21" t="s">
-        <v>574</v>
-      </c>
-      <c r="W21" t="s">
-        <v>610</v>
-      </c>
-      <c r="X21" t="s">
-        <v>643</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>556</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>583</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>735</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>763</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>616</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>801</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>756</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C22">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>1998.07</v>
+        <v>2000.12</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H22" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="J22" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="K22" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L22" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="M22" t="s">
         <v>456</v>
       </c>
       <c r="N22">
-        <v>1336</v>
+        <v>1009</v>
       </c>
       <c r="O22">
-        <v>37.631157999999999</v>
+        <v>37.624650000000003</v>
       </c>
       <c r="P22">
-        <v>127.03610500000001</v>
+        <v>127.04464</v>
       </c>
       <c r="Q22" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R22" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="S22" t="s">
         <v>553</v>
@@ -6823,16 +6520,16 @@
         <v>555</v>
       </c>
       <c r="U22" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V22" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="W22" t="s">
-        <v>613</v>
+        <v>497</v>
       </c>
       <c r="X22" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="Y22" t="s">
         <v>553</v>
@@ -6844,13 +6541,13 @@
         <v>556</v>
       </c>
       <c r="AB22" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="AC22" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="AD22" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="AE22" t="s">
         <v>553</v>
@@ -6862,99 +6559,81 @@
         <v>556</v>
       </c>
       <c r="AH22" t="s">
-        <v>690</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>785</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>804</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>819</v>
+        <v>768</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C23">
-        <v>158</v>
+        <v>648</v>
       </c>
       <c r="D23">
-        <v>1998.06</v>
+        <v>2002.08</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J23" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L23" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M23" t="s">
         <v>456</v>
       </c>
       <c r="N23">
-        <v>3126</v>
+        <v>3099</v>
       </c>
       <c r="O23">
-        <v>37.627388000000003</v>
+        <v>37.621561</v>
       </c>
       <c r="P23">
-        <v>127.04343799999999</v>
+        <v>127.010971</v>
       </c>
       <c r="Q23" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="R23" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="S23" t="s">
         <v>553</v>
       </c>
       <c r="T23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U23" t="s">
         <v>557</v>
       </c>
       <c r="V23" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="W23" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="X23" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="Y23" t="s">
         <v>553</v>
@@ -6966,13 +6645,13 @@
         <v>556</v>
       </c>
       <c r="AB23" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AC23" t="s">
-        <v>502</v>
+        <v>605</v>
       </c>
       <c r="AD23" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="AE23" t="s">
         <v>553</v>
@@ -6984,16 +6663,16 @@
         <v>556</v>
       </c>
       <c r="AH23" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="AI23" t="s">
-        <v>612</v>
+        <v>782</v>
       </c>
       <c r="AJ23" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="AK23" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="AL23" t="s">
         <v>554</v>
@@ -7002,81 +6681,81 @@
         <v>556</v>
       </c>
       <c r="AN23" t="s">
-        <v>756</v>
+        <v>821</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>1998.08</v>
+        <v>2003.04</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="H24" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="J24" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K24" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L24" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="M24" t="s">
         <v>456</v>
       </c>
       <c r="N24">
-        <v>900</v>
+        <v>13010</v>
       </c>
       <c r="O24">
-        <v>37.624274</v>
+        <v>37.662143</v>
       </c>
       <c r="P24">
-        <v>127.038346</v>
+        <v>127.012016</v>
       </c>
       <c r="Q24" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="R24" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="S24" t="s">
         <v>553</v>
       </c>
       <c r="T24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U24" t="s">
         <v>556</v>
       </c>
       <c r="V24" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="W24" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="X24" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="Y24" t="s">
         <v>553</v>
@@ -7088,99 +6767,81 @@
         <v>556</v>
       </c>
       <c r="AB24" t="s">
-        <v>682</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>711</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>741</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>669</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>766</v>
+        <v>697</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C25">
-        <v>113</v>
+        <v>805</v>
       </c>
       <c r="D25">
-        <v>2009.07</v>
+        <v>2003.12</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H25" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I25" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="J25" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K25" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L25" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M25" t="s">
         <v>456</v>
       </c>
       <c r="N25">
-        <v>27729</v>
+        <v>8206</v>
       </c>
       <c r="O25">
-        <v>37.635832999999998</v>
+        <v>37.615672000000004</v>
       </c>
       <c r="P25">
-        <v>127.031524</v>
+        <v>127.017853</v>
       </c>
       <c r="Q25" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="R25" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="S25" t="s">
         <v>553</v>
       </c>
       <c r="T25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U25" t="s">
         <v>556</v>
       </c>
       <c r="V25" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="W25" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="X25" t="s">
-        <v>530</v>
+        <v>642</v>
       </c>
       <c r="Y25" t="s">
         <v>553</v>
@@ -7192,149 +6853,185 @@
         <v>556</v>
       </c>
       <c r="AB25" t="s">
-        <v>683</v>
+        <v>678</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>669</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>762</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C26">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>2009.07</v>
+        <v>1994.12</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I26" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J26" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="K26" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="L26" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M26" t="s">
         <v>456</v>
       </c>
       <c r="N26">
-        <v>27730</v>
+        <v>3131</v>
       </c>
       <c r="O26">
-        <v>37.635693000000003</v>
+        <v>37.641466000000001</v>
       </c>
       <c r="P26">
-        <v>127.031038</v>
+        <v>127.031824</v>
       </c>
       <c r="Q26" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="R26" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="S26" t="s">
         <v>553</v>
       </c>
       <c r="T26" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U26" t="s">
         <v>556</v>
       </c>
       <c r="V26" t="s">
-        <v>580</v>
+        <v>563</v>
+      </c>
+      <c r="W26" t="s">
+        <v>618</v>
+      </c>
+      <c r="X26" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C27">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="D27">
-        <v>1998.1</v>
+        <v>2010.05</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H27" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="I27" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="J27" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K27" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L27" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="M27" t="s">
         <v>456</v>
       </c>
-      <c r="N27">
-        <v>3128</v>
-      </c>
-      <c r="O27">
-        <v>37.626356999999999</v>
-      </c>
-      <c r="P27">
-        <v>127.03962199999999</v>
+      <c r="N27" t="s">
+        <v>458</v>
+      </c>
+      <c r="O27" t="s">
+        <v>464</v>
+      </c>
+      <c r="P27" t="s">
+        <v>470</v>
       </c>
       <c r="Q27" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="R27" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="S27" t="s">
         <v>553</v>
       </c>
       <c r="T27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V27" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="W27" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="X27" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="Y27" t="s">
         <v>553</v>
@@ -7346,63 +7043,171 @@
         <v>556</v>
       </c>
       <c r="AB27" t="s">
-        <v>684</v>
+        <v>670</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>721</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>688</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>772</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>789</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>815</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>774</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>839</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>854</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>864</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>876</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>859</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>864</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>553</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>554</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>682</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>788</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>898</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>669</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>554</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>556</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>568</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C28">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>1997.05</v>
+        <v>1998.07</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="H28" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I28" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="J28" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="K28" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L28" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="M28" t="s">
         <v>456</v>
       </c>
       <c r="N28">
-        <v>3127</v>
+        <v>11212</v>
       </c>
       <c r="O28">
-        <v>37.637779999999999</v>
+        <v>37.631684999999997</v>
       </c>
       <c r="P28">
-        <v>127.03230000000001</v>
+        <v>127.023511</v>
       </c>
       <c r="Q28" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="R28" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="S28" t="s">
         <v>553</v>
@@ -7411,173 +7216,155 @@
         <v>555</v>
       </c>
       <c r="U28" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V28" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="W28" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="X28" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="Y28" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="Z28" t="s">
         <v>554</v>
       </c>
       <c r="AA28" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AB28" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C29">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D29">
-        <v>1994.12</v>
+        <v>2003.1</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H29" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="I29" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="J29" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K29" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L29" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="M29" t="s">
         <v>456</v>
       </c>
       <c r="N29">
-        <v>3131</v>
+        <v>26447</v>
       </c>
       <c r="O29">
-        <v>37.641466000000001</v>
+        <v>37.621600000000001</v>
       </c>
       <c r="P29">
-        <v>127.031824</v>
+        <v>127.026543</v>
       </c>
       <c r="Q29" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="R29" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="S29" t="s">
         <v>553</v>
       </c>
       <c r="T29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U29" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V29" t="s">
-        <v>563</v>
-      </c>
-      <c r="W29" t="s">
-        <v>618</v>
-      </c>
-      <c r="X29" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>556</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C30">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="D30">
-        <v>2005.04</v>
+        <v>1990.09</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H30" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="I30" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="J30" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="K30" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L30" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="M30" t="s">
         <v>456</v>
       </c>
       <c r="N30">
-        <v>17631</v>
+        <v>1011</v>
       </c>
       <c r="O30">
-        <v>37.638615999999999</v>
+        <v>37.661769999999997</v>
       </c>
       <c r="P30">
-        <v>127.027046</v>
+        <v>127.013789</v>
       </c>
       <c r="Q30" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="R30" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="S30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="T30" t="s">
         <v>555</v>
@@ -7586,171 +7373,99 @@
         <v>556</v>
       </c>
       <c r="V30" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="W30" t="s">
-        <v>619</v>
+        <v>506</v>
       </c>
       <c r="X30" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="Y30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Z30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA30" t="s">
         <v>556</v>
       </c>
       <c r="AB30" t="s">
-        <v>564</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>742</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>555</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>558</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>672</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>493</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>806</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>554</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>555</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>557</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>590</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>624</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>850</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>595</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>863</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>873</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>558</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C31">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D31">
-        <v>1999.07</v>
+        <v>2010.09</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H31" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="I31" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J31" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="K31" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="M31" t="s">
         <v>456</v>
       </c>
       <c r="N31">
-        <v>1008</v>
+        <v>26885</v>
       </c>
       <c r="O31">
-        <v>37.625799000000001</v>
+        <v>37.612743999999999</v>
       </c>
       <c r="P31">
-        <v>127.04308399999999</v>
+        <v>127.025526</v>
       </c>
       <c r="Q31" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="R31" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="S31" t="s">
         <v>553</v>
       </c>
       <c r="T31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V31" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="W31" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="X31" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="Y31" t="s">
         <v>553</v>
@@ -7762,63 +7477,135 @@
         <v>556</v>
       </c>
       <c r="AB31" t="s">
-        <v>686</v>
+        <v>676</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>707</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>617</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>799</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>820</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>847</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>591</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>862</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>872</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>669</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C32">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D32">
-        <v>2001.09</v>
+        <v>2001.11</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H32" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I32" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J32" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K32" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L32" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="M32" t="s">
         <v>456</v>
       </c>
       <c r="N32">
-        <v>9086</v>
+        <v>3132</v>
       </c>
       <c r="O32">
-        <v>37.631711000000003</v>
+        <v>37.644936999999999</v>
       </c>
       <c r="P32">
-        <v>127.03545200000001</v>
+        <v>127.01783</v>
       </c>
       <c r="Q32" t="s">
         <v>495</v>
       </c>
       <c r="R32" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="S32" t="s">
         <v>553</v>
@@ -7827,16 +7614,16 @@
         <v>555</v>
       </c>
       <c r="U32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V32" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="W32" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
       <c r="X32" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="Y32" t="s">
         <v>553</v>
@@ -7848,16 +7635,16 @@
         <v>556</v>
       </c>
       <c r="AB32" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="AC32" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="AD32" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="AE32" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="AF32" t="s">
         <v>554</v>
@@ -7866,102 +7653,66 @@
         <v>556</v>
       </c>
       <c r="AH32" t="s">
-        <v>675</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>786</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>807</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>669</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>824</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>838</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>851</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>669</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C33">
-        <v>180</v>
+        <v>452</v>
       </c>
       <c r="D33">
-        <v>1991.05</v>
+        <v>1992.1</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H33" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I33" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J33" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K33" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N33">
-        <v>1337</v>
+        <v>1344</v>
       </c>
       <c r="O33">
-        <v>37.624749999999999</v>
+        <v>37.642336</v>
       </c>
       <c r="P33">
-        <v>127.04728</v>
+        <v>127.01934900000001</v>
       </c>
       <c r="Q33" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="R33" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="S33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T33" t="s">
         <v>555</v>
@@ -7970,347 +7721,239 @@
         <v>557</v>
       </c>
       <c r="V33" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="W33" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="X33" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="Y33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB33" t="s">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="AC33" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AD33" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="AE33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AH33" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="AI33" t="s">
-        <v>626</v>
+        <v>788</v>
       </c>
       <c r="AJ33" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AK33" t="s">
-        <v>554</v>
+        <v>669</v>
       </c>
       <c r="AL33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM33" t="s">
         <v>556</v>
       </c>
       <c r="AN33" t="s">
-        <v>825</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>491</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>852</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>555</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>857</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>503</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>874</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>555</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>881</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>609</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>889</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>555</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>557</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>893</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>1991.04</v>
+        <v>1994.02</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="I34" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J34" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K34" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="L34" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M34" t="s">
         <v>456</v>
       </c>
       <c r="N34">
-        <v>1302</v>
+        <v>1010</v>
       </c>
       <c r="O34">
-        <v>37.631064000000002</v>
+        <v>37.643450999999999</v>
       </c>
       <c r="P34">
-        <v>127.039018</v>
+        <v>127.01798599999999</v>
       </c>
       <c r="Q34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="R34" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="S34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T34" t="s">
         <v>555</v>
       </c>
       <c r="U34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V34" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="W34" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="X34" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="Y34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z34" t="s">
         <v>555</v>
       </c>
       <c r="AA34" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AB34" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="AC34" t="s">
-        <v>714</v>
+        <v>624</v>
       </c>
       <c r="AD34" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="AE34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG34" t="s">
         <v>556</v>
       </c>
       <c r="AH34" t="s">
-        <v>688</v>
+        <v>591</v>
       </c>
       <c r="AI34" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="AJ34" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="AK34" t="s">
-        <v>554</v>
+        <v>669</v>
       </c>
       <c r="AL34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM34" t="s">
         <v>556</v>
       </c>
       <c r="AN34" t="s">
-        <v>826</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>486</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>853</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>555</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>688</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>623</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>875</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>555</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>556</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>826</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>624</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>890</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>554</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>556</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C35">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="D35">
-        <v>2005.04</v>
+        <v>2009.07</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I35" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="K35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L35" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M35" t="s">
         <v>456</v>
       </c>
       <c r="N35">
-        <v>9607</v>
+        <v>27729</v>
       </c>
       <c r="O35">
-        <v>37.627406999999998</v>
+        <v>37.635832999999998</v>
       </c>
       <c r="P35">
-        <v>127.03917800000001</v>
+        <v>127.031524</v>
       </c>
       <c r="Q35" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="R35" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="S35" t="s">
         <v>553</v>
@@ -8322,63 +7965,81 @@
         <v>556</v>
       </c>
       <c r="V35" t="s">
-        <v>588</v>
+        <v>563</v>
+      </c>
+      <c r="W35" t="s">
+        <v>616</v>
+      </c>
+      <c r="X35" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>683</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C36">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="D36">
-        <v>1991.03</v>
+        <v>2009.07</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H36" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="I36" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36" t="s">
         <v>315</v>
       </c>
-      <c r="J36" t="s">
-        <v>384</v>
-      </c>
       <c r="K36" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M36" t="s">
         <v>456</v>
       </c>
       <c r="N36">
-        <v>1342</v>
+        <v>27730</v>
       </c>
       <c r="O36">
-        <v>37.626987</v>
+        <v>37.635693000000003</v>
       </c>
       <c r="P36">
-        <v>127.040701</v>
+        <v>127.031038</v>
       </c>
       <c r="Q36" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="R36" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="S36" t="s">
         <v>553</v>
@@ -8390,63 +8051,63 @@
         <v>556</v>
       </c>
       <c r="V36" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C37">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D37">
-        <v>2000.12</v>
+        <v>1999.07</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H37" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L37" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M37" t="s">
         <v>456</v>
       </c>
       <c r="N37">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O37">
-        <v>37.624650000000003</v>
+        <v>37.625799000000001</v>
       </c>
       <c r="P37">
-        <v>127.04464</v>
+        <v>127.04308399999999</v>
       </c>
       <c r="Q37" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="R37" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="S37" t="s">
         <v>553</v>
@@ -8458,156 +8119,138 @@
         <v>557</v>
       </c>
       <c r="V37" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="W37" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
       <c r="X37" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Y37" t="s">
         <v>553</v>
       </c>
       <c r="Z37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA37" t="s">
         <v>556</v>
       </c>
       <c r="AB37" t="s">
-        <v>689</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>715</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>746</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>768</v>
+        <v>686</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C38">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>2000.08</v>
+        <v>2006.03</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="K38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L38" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="M38" t="s">
         <v>456</v>
       </c>
       <c r="N38">
-        <v>9345</v>
+        <v>24036</v>
       </c>
       <c r="O38">
-        <v>37.626601000000001</v>
+        <v>37.625860000000003</v>
       </c>
       <c r="P38">
-        <v>127.03754600000001</v>
+        <v>127.03119</v>
       </c>
       <c r="Q38" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="R38" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="S38" t="s">
         <v>553</v>
       </c>
       <c r="T38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V38" t="s">
+        <v>575</v>
+      </c>
+      <c r="W38" t="s">
+        <v>507</v>
+      </c>
+      <c r="X38" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>709</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH38" t="s">
         <v>591</v>
       </c>
-      <c r="W38" t="s">
-        <v>622</v>
-      </c>
-      <c r="X38" t="s">
-        <v>659</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>556</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>690</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>502</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>747</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>581</v>
-      </c>
       <c r="AI38" t="s">
-        <v>717</v>
+        <v>783</v>
       </c>
       <c r="AJ38" t="s">
-        <v>810</v>
+        <v>736</v>
       </c>
       <c r="AK38" t="s">
-        <v>669</v>
+        <v>553</v>
       </c>
       <c r="AL38" t="s">
         <v>554</v>
@@ -8616,81 +8259,99 @@
         <v>556</v>
       </c>
       <c r="AN38" t="s">
-        <v>827</v>
+        <v>822</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>836</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>736</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>672</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>1995.02</v>
+        <v>1997.05</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F39" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G39" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K39" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L39" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M39" t="s">
         <v>456</v>
       </c>
       <c r="N39">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="O39">
-        <v>37.625127999999997</v>
+        <v>37.637779999999999</v>
       </c>
       <c r="P39">
-        <v>127.036953</v>
+        <v>127.03230000000001</v>
       </c>
       <c r="Q39" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="R39" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="S39" t="s">
         <v>553</v>
       </c>
       <c r="T39" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="V39" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="W39" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="X39" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="Y39" t="s">
         <v>553</v>
@@ -8699,84 +8360,66 @@
         <v>554</v>
       </c>
       <c r="AA39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AB39" t="s">
-        <v>691</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>716</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>748</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>669</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C40">
-        <v>427</v>
+        <v>101</v>
       </c>
       <c r="D40">
-        <v>1990.1</v>
+        <v>2001.09</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H40" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M40" t="s">
         <v>456</v>
       </c>
       <c r="N40">
-        <v>1343</v>
+        <v>9086</v>
       </c>
       <c r="O40">
-        <v>37.641959</v>
+        <v>37.631711000000003</v>
       </c>
       <c r="P40">
-        <v>127.011955</v>
+        <v>127.03545200000001</v>
       </c>
       <c r="Q40" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="R40" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="S40" t="s">
         <v>553</v>
@@ -8788,13 +8431,13 @@
         <v>556</v>
       </c>
       <c r="V40" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="W40" t="s">
-        <v>624</v>
+        <v>496</v>
       </c>
       <c r="X40" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="Y40" t="s">
         <v>553</v>
@@ -8806,35 +8449,35 @@
         <v>556</v>
       </c>
       <c r="AB40" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AC40" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AD40" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="AE40" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>675</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>786</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>807</v>
+      </c>
+      <c r="AK40" t="s">
         <v>669</v>
       </c>
-      <c r="AF40" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>769</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>787</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>811</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>814</v>
-      </c>
       <c r="AL40" t="s">
         <v>554</v>
       </c>
@@ -8842,99 +8485,117 @@
         <v>556</v>
       </c>
       <c r="AN40" t="s">
-        <v>585</v>
+        <v>824</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>838</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>851</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>669</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>683</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C41">
-        <v>452</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>1992.1</v>
+        <v>2013.09</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="H41" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="M41" t="s">
         <v>456</v>
       </c>
-      <c r="N41">
-        <v>1344</v>
-      </c>
-      <c r="O41">
-        <v>37.642336</v>
-      </c>
-      <c r="P41">
-        <v>127.01934900000001</v>
+      <c r="N41" t="s">
+        <v>463</v>
+      </c>
+      <c r="O41" t="s">
+        <v>469</v>
+      </c>
+      <c r="P41" t="s">
+        <v>475</v>
       </c>
       <c r="Q41" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="R41" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="S41" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="T41" t="s">
         <v>555</v>
       </c>
       <c r="U41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V41" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="W41" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="X41" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="Y41" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z41" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA41" t="s">
         <v>556</v>
       </c>
       <c r="AB41" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="AC41" t="s">
-        <v>718</v>
+        <v>482</v>
       </c>
       <c r="AD41" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="AE41" t="s">
         <v>553</v>
@@ -8946,16 +8607,16 @@
         <v>556</v>
       </c>
       <c r="AH41" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="AI41" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="AJ41" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="AK41" t="s">
-        <v>669</v>
+        <v>553</v>
       </c>
       <c r="AL41" t="s">
         <v>554</v>
@@ -8964,185 +8625,365 @@
         <v>556</v>
       </c>
       <c r="AN41" t="s">
-        <v>828</v>
+        <v>562</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>832</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>843</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>554</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>756</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>860</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>868</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>554</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>556</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>756</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>884</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>888</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>554</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>554</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>562</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>897</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>902</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>554</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>554</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>556</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>756</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>903</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>906</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>553</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>554</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>556</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>756</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>908</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>911</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>553</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>554</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>556</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>756</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>913</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>916</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>553</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>554</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>556</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>756</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>605</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>918</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>553</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>554</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>556</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>756</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>609</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>919</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>553</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>554</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>556</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>756</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>920</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>921</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>553</v>
+      </c>
+      <c r="CT41" t="s">
+        <v>554</v>
+      </c>
+      <c r="CU41" t="s">
+        <v>556</v>
+      </c>
+      <c r="CV41" t="s">
+        <v>922</v>
+      </c>
+      <c r="CW41" t="s">
+        <v>923</v>
+      </c>
+      <c r="CX41" t="s">
+        <v>924</v>
+      </c>
+      <c r="CY41" t="s">
+        <v>553</v>
+      </c>
+      <c r="CZ41" t="s">
+        <v>554</v>
+      </c>
+      <c r="DA41" t="s">
+        <v>556</v>
+      </c>
+      <c r="DB41" t="s">
+        <v>564</v>
+      </c>
+      <c r="DC41" t="s">
+        <v>925</v>
+      </c>
+      <c r="DD41" t="s">
+        <v>926</v>
+      </c>
+      <c r="DE41" t="s">
+        <v>553</v>
+      </c>
+      <c r="DF41" t="s">
+        <v>554</v>
+      </c>
+      <c r="DG41" t="s">
+        <v>556</v>
+      </c>
+      <c r="DH41" t="s">
+        <v>672</v>
+      </c>
+      <c r="DI41" t="s">
+        <v>927</v>
+      </c>
+      <c r="DJ41" t="s">
+        <v>928</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>553</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>554</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>556</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="D42">
-        <v>1994.02</v>
+        <v>2005.04</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J42" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="K42" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L42" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M42" t="s">
         <v>456</v>
       </c>
       <c r="N42">
-        <v>1010</v>
+        <v>9607</v>
       </c>
       <c r="O42">
-        <v>37.643450999999999</v>
+        <v>37.627406999999998</v>
       </c>
       <c r="P42">
-        <v>127.01798599999999</v>
+        <v>127.03917800000001</v>
       </c>
       <c r="Q42" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="R42" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="S42" t="s">
         <v>553</v>
       </c>
       <c r="T42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U42" t="s">
         <v>556</v>
       </c>
       <c r="V42" t="s">
-        <v>594</v>
-      </c>
-      <c r="W42" t="s">
-        <v>626</v>
-      </c>
-      <c r="X42" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>694</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>624</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>751</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>591</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>703</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>813</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>669</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>829</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C43">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="D43">
-        <v>1998.07</v>
+        <v>2000.08</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G43" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I43" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="J43" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M43" t="s">
         <v>456</v>
       </c>
       <c r="N43">
-        <v>11212</v>
+        <v>9345</v>
       </c>
       <c r="O43">
-        <v>37.631684999999997</v>
+        <v>37.626601000000001</v>
       </c>
       <c r="P43">
-        <v>127.023511</v>
+        <v>127.03754600000001</v>
       </c>
       <c r="Q43" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="R43" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="S43" t="s">
         <v>553</v>
@@ -9151,84 +8992,120 @@
         <v>555</v>
       </c>
       <c r="U43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V43" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="W43" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="X43" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Y43" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>717</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>810</v>
+      </c>
+      <c r="AK43" t="s">
         <v>669</v>
       </c>
-      <c r="Z43" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>694</v>
+      <c r="AL43" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>827</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C44">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D44">
-        <v>2001.11</v>
+        <v>1998.1</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="I44" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="J44" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L44" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M44" t="s">
         <v>456</v>
       </c>
       <c r="N44">
-        <v>3132</v>
+        <v>1007</v>
       </c>
       <c r="O44">
-        <v>37.644936999999999</v>
+        <v>37.617320999999997</v>
       </c>
       <c r="P44">
-        <v>127.01783</v>
+        <v>127.022272</v>
       </c>
       <c r="Q44" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="R44" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="S44" t="s">
         <v>553</v>
@@ -9237,37 +9114,37 @@
         <v>555</v>
       </c>
       <c r="U44" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V44" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="W44" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="X44" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="Y44" t="s">
         <v>553</v>
       </c>
       <c r="Z44" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA44" t="s">
         <v>556</v>
       </c>
       <c r="AB44" t="s">
-        <v>695</v>
+        <v>583</v>
       </c>
       <c r="AC44" t="s">
-        <v>719</v>
+        <v>496</v>
       </c>
       <c r="AD44" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="AE44" t="s">
-        <v>669</v>
+        <v>553</v>
       </c>
       <c r="AF44" t="s">
         <v>554</v>
@@ -9276,63 +9153,81 @@
         <v>556</v>
       </c>
       <c r="AH44" t="s">
-        <v>771</v>
+        <v>763</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>616</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>801</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>756</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C45">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="D45">
-        <v>2000.09</v>
+        <v>1992.12</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="G45" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H45" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="I45" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="J45" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="K45" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L45" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="M45" t="s">
         <v>456</v>
       </c>
       <c r="N45">
-        <v>3134</v>
+        <v>1007</v>
       </c>
       <c r="O45">
-        <v>37.655611</v>
+        <v>37.617320999999997</v>
       </c>
       <c r="P45">
-        <v>127.011026</v>
+        <v>127.022272</v>
       </c>
       <c r="Q45" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="R45" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="S45" t="s">
         <v>553</v>
@@ -9341,34 +9236,34 @@
         <v>555</v>
       </c>
       <c r="U45" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="V45" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="W45" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="X45" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="Y45" t="s">
         <v>553</v>
       </c>
       <c r="Z45" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA45" t="s">
         <v>556</v>
       </c>
       <c r="AB45" t="s">
-        <v>696</v>
+        <v>583</v>
       </c>
       <c r="AC45" t="s">
-        <v>720</v>
+        <v>496</v>
       </c>
       <c r="AD45" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="AE45" t="s">
         <v>553</v>
@@ -9380,167 +9275,257 @@
         <v>556</v>
       </c>
       <c r="AH45" t="s">
-        <v>595</v>
+        <v>763</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>616</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>801</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>756</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D46">
-        <v>2003.04</v>
+        <v>2005.04</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G46" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H46" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I46" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="J46" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L46" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="M46" t="s">
         <v>456</v>
       </c>
       <c r="N46">
-        <v>13010</v>
+        <v>17631</v>
       </c>
       <c r="O46">
-        <v>37.662143</v>
+        <v>37.638615999999999</v>
       </c>
       <c r="P46">
-        <v>127.012016</v>
+        <v>127.027046</v>
       </c>
       <c r="Q46" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="R46" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="S46" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="T46" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="U46" t="s">
         <v>556</v>
       </c>
       <c r="V46" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="W46" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="X46" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="Y46" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z46" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA46" t="s">
         <v>556</v>
       </c>
       <c r="AB46" t="s">
-        <v>697</v>
+        <v>564</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>672</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>806</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>554</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>555</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>590</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>624</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>850</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>595</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>863</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>873</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>554</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>558</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>672</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C47">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>1990.09</v>
+        <v>1995.02</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="H47" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I47" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J47" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="K47" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M47" t="s">
         <v>456</v>
       </c>
       <c r="N47">
-        <v>1011</v>
+        <v>3130</v>
       </c>
       <c r="O47">
-        <v>37.661769999999997</v>
+        <v>37.625127999999997</v>
       </c>
       <c r="P47">
-        <v>127.013789</v>
+        <v>127.036953</v>
       </c>
       <c r="Q47" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="R47" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="S47" t="s">
         <v>553</v>
       </c>
       <c r="T47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U47" t="s">
         <v>556</v>
       </c>
       <c r="V47" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="W47" t="s">
-        <v>506</v>
+        <v>623</v>
       </c>
       <c r="X47" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="Y47" t="s">
         <v>553</v>
@@ -9552,7 +9537,25 @@
         <v>556</v>
       </c>
       <c r="AB47" t="s">
-        <v>698</v>
+        <v>691</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>669</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
